--- a/docs/tcamp/2022教師營_程式希求0924-給允中.xlsx
+++ b/docs/tcamp/2022教師營_程式希求0924-給允中.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021教師營\程式\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lzong/wwwroot/bwcamp/docs/tcamp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0B2B2E-DC4B-41B7-B344-D41AA62B9573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D7C63C-59D2-784C-809E-21B5E5F4CD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20640" windowHeight="12700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>2022 教師生命成長營線上報名表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -323,12 +323,6 @@
     <t>我同意主辦單位在營隊期間拍照、錄影之活動記錄，使用於營隊及主辦單位的非營利教育推廣使用，並以網路方式推播。</t>
   </si>
   <si>
-    <t>是否參加過福智的活動</t>
-  </si>
-  <si>
-    <t>如何得知報名訊息（可複選）</t>
-  </si>
-  <si>
     <t>親友/同事推薦
 學校公文
 宣傳海報/小卡
@@ -384,12 +378,24 @@
     <t>我未曾參加過福智教師生命成長營_住宿型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何得知報名訊息（可複選）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否參加過福智的活動</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,15 +477,15 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="標楷體"/>
-      <family val="4"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="標楷體"/>
-      <family val="4"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -562,37 +568,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -877,15 +883,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="36.3984375" customWidth="1"/>
     <col min="2" max="2" width="21.796875" customWidth="1"/>
-    <col min="3" max="3" width="17.09765625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="15.796875" customWidth="1"/>
     <col min="5" max="5" width="12.59765625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -893,23 +899,23 @@
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:8" ht="22" customHeight="1">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-    </row>
-    <row r="2" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="38" customHeight="1">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-    </row>
-    <row r="3" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" ht="22" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -917,7 +923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="22" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -925,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="33.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -936,7 +942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="99" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -944,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="21.5" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -952,7 +958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="21" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -960,7 +966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="56" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -968,11 +974,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:8" ht="24.5" customHeight="1">
+      <c r="A10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -988,28 +994,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="139" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24" t="s">
+    <row r="11" spans="1:8" ht="139" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="23"/>
+    <row r="12" spans="1:8" ht="35.5" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="10" t="s">
         <v>19</v>
       </c>
@@ -1020,26 +1026,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="131" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
+    <row r="13" spans="1:8" ht="131" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:8" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
+    <row r="14" spans="1:8" ht="136.5" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="15" t="s">
         <v>23</v>
       </c>
@@ -1050,8 +1056,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+    <row r="15" spans="1:8" ht="28" customHeight="1">
+      <c r="A15" s="22"/>
       <c r="B15" s="15" t="s">
         <v>16</v>
       </c>
@@ -1062,12 +1068,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="23.5" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="24" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -1075,14 +1081,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:5" ht="62" customHeight="1">
+      <c r="A18" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="26" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -1092,69 +1098,72 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="24" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="24" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="47.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="47.5" customHeight="1">
       <c r="A21" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="24" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="38" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="115" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
+    <row r="24" spans="1:5" ht="115" customHeight="1">
+      <c r="A24" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="158.5" customHeight="1">
+      <c r="A25" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="158.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="27.5" customHeight="1">
+      <c r="A26" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="27.5" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="26.5" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
